--- a/Cadastro Produtos.xlsx
+++ b/Cadastro Produtos.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,6 +513,21 @@
         <v>2</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>UNI</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Cadastro Produtos.xlsx
+++ b/Cadastro Produtos.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Produtos" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,94 +434,209 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>UNIDADES POR TIPO</t>
+          <t>UNIDADES POR EMB.</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>OBS.</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Arroz</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>PCT</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>UNI</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">aaaa
+</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Feijao</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>PCT</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>UNI</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">toma
+</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Milho</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>CX</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>UNI</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ok
+</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>&amp; C:/Users/bruno.polycarpo/AppData/Local/Programs/Python/Python312/python.exe "h:/4 COMPRA/main.py"</t>
+          <t>arroz</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>UNI</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>UNI</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">toma
+</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>bRUNA</t>
+          <t>arroz</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>UNI</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>UNI</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ok
+</t>
+        </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr"/>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ARROZ</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="C7" t="inlineStr">
         <is>
           <t>UNI</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ARRO</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>UNI</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">toma
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>DSADA</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>UNI</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>SADADSA</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>asdasd</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>UNI</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">qw
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ADSADADASD</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>UNI</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>
 </t>
